--- a/Assets/Resources/Configs/Excel/PlayerLvAttrConfig.xlsx
+++ b/Assets/Resources/Configs/Excel/PlayerLvAttrConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18480" windowHeight="7440"/>
+    <workbookView windowWidth="18220" windowHeight="6920"/>
   </bookViews>
   <sheets>
     <sheet name="PlayerLvAttr" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
   <si>
     <t>等级信息</t>
   </si>
@@ -43,6 +43,9 @@
     <t>闪避率</t>
   </si>
   <si>
+    <t>下一级经验</t>
+  </si>
+  <si>
     <t>#PlayerLvInfo</t>
   </si>
   <si>
@@ -68,6 +71,9 @@
   </si>
   <si>
     <t>dodgeRate</t>
+  </si>
+  <si>
+    <t>exp</t>
   </si>
   <si>
     <t>int</t>
@@ -81,8 +87,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -477,10 +483,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="M9" sqref="J4:J13 M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -489,7 +495,7 @@
     <col min="4" max="4" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -517,66 +523,75 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="J2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>1</v>
       </c>
@@ -596,7 +611,7 @@
         <v>2</v>
       </c>
       <c r="G4">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="H4">
         <v>1.5</v>
@@ -604,8 +619,11 @@
       <c r="I4">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="J4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>2</v>
       </c>
@@ -625,7 +643,7 @@
         <v>3</v>
       </c>
       <c r="G5">
-        <v>0.025</v>
+        <v>0.07</v>
       </c>
       <c r="H5">
         <v>1.5</v>
@@ -633,8 +651,11 @@
       <c r="I5">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>3</v>
       </c>
@@ -654,7 +675,7 @@
         <v>4</v>
       </c>
       <c r="G6">
-        <v>0.03</v>
+        <v>0.9</v>
       </c>
       <c r="H6">
         <v>1.55</v>
@@ -662,8 +683,11 @@
       <c r="I6">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="J6">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>4</v>
       </c>
@@ -683,7 +707,7 @@
         <v>5</v>
       </c>
       <c r="G7">
-        <v>0.035</v>
+        <v>0.11</v>
       </c>
       <c r="H7">
         <v>1.55</v>
@@ -691,8 +715,11 @@
       <c r="I7">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="J7">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>5</v>
       </c>
@@ -712,7 +739,7 @@
         <v>7</v>
       </c>
       <c r="G8">
-        <v>0.04</v>
+        <v>0.13</v>
       </c>
       <c r="H8">
         <v>1.6</v>
@@ -720,8 +747,11 @@
       <c r="I8">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="J8">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9">
         <v>6</v>
       </c>
@@ -741,7 +771,7 @@
         <v>9</v>
       </c>
       <c r="G9">
-        <v>0.045</v>
+        <v>0.15</v>
       </c>
       <c r="H9">
         <v>1.6</v>
@@ -749,8 +779,11 @@
       <c r="I9">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="J9">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10">
         <v>7</v>
       </c>
@@ -770,7 +803,7 @@
         <v>11</v>
       </c>
       <c r="G10">
-        <v>0.05</v>
+        <v>0.17</v>
       </c>
       <c r="H10">
         <v>1.65</v>
@@ -778,8 +811,11 @@
       <c r="I10">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="J10">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11">
         <v>8</v>
       </c>
@@ -799,7 +835,7 @@
         <v>14</v>
       </c>
       <c r="G11">
-        <v>0.055</v>
+        <v>0.2</v>
       </c>
       <c r="H11">
         <v>1.65</v>
@@ -807,8 +843,11 @@
       <c r="I11">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="J11">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12">
         <v>9</v>
       </c>
@@ -828,7 +867,7 @@
         <v>17</v>
       </c>
       <c r="G12">
-        <v>0.06</v>
+        <v>0.23</v>
       </c>
       <c r="H12">
         <v>1.7</v>
@@ -836,8 +875,11 @@
       <c r="I12">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="J12">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13">
         <v>10</v>
       </c>
@@ -857,13 +899,16 @@
         <v>20</v>
       </c>
       <c r="G13">
-        <v>0.07</v>
+        <v>0.28</v>
       </c>
       <c r="H13">
         <v>1.7</v>
       </c>
       <c r="I13">
         <v>0.22</v>
+      </c>
+      <c r="J13">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
